--- a/Resources/Private/ExampleData/products.xlsx
+++ b/Resources/Private/ExampleData/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
   </si>
   <si>
-    <t xml:space="preserve">9,13</t>
+    <t xml:space="preserve">Cars,Pick-Ups </t>
   </si>
   <si>
     <t xml:space="preserve">Chevrolet</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Lorem ipsum 445566 </t>
   </si>
   <si>
-    <t xml:space="preserve">9,12</t>
+    <t xml:space="preserve">Cars,Roadsters</t>
   </si>
   <si>
     <t xml:space="preserve">BMW</t>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lorem ipsum 778899 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicycles</t>
   </si>
   <si>
     <t xml:space="preserve">White,Red</t>
@@ -166,6 +169,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -254,7 +258,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,14 +427,14 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>10</v>
+      <c r="E4" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>18</v>
@@ -439,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Private/ExampleData/products.xlsx
+++ b/Resources/Private/ExampleData/products.xlsx
@@ -258,7 +258,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Resources/Private/ExampleData/products.xlsx
+++ b/Resources/Private/ExampleData/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t xml:space="preserve">Meta description</t>
   </si>
   <si>
+    <t xml:space="preserve">Fal files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fal images</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chevrolet Pick up</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t xml:space="preserve">test-document-pdf.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">bicycle_cannondale_black.jpg,bicycle_cannondale_red.jpg,bicycle_cannondale_white.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">BMW Roadster</t>
   </si>
   <si>
@@ -151,10 +160,10 @@
     <t xml:space="preserve">White,Red</t>
   </si>
   <si>
-    <t xml:space="preserve">bicycle_cannondale_black.jpg,bicycle_cannondale_red.jpg,bicycle_cannondale_white.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">445566,112233 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicycle_cannondale_black.jpg</t>
   </si>
 </sst>
 </file>
@@ -240,12 +249,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -255,10 +264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,46 +330,52 @@
       <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>112233</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="0" t="n">
@@ -370,71 +385,77 @@
         <v>778899</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>445566</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>112233</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>778899</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>18</v>
@@ -443,10 +464,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
